--- a/biology/Zoologie/Hippolyte_catagrapha/Hippolyte_catagrapha.xlsx
+++ b/biology/Zoologie/Hippolyte_catagrapha/Hippolyte_catagrapha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crevette crinoïde
-Hippolyte catagrapha, communément appelé la Crevette crinoïde, est une espèce de crevettes de la famille des Hippolytidae et du genre Hippolyte. Elle vit camouflée au milieu des bras de la comatule tropicale Tropiometra carinata[2].
+Hippolyte catagrapha, communément appelé la Crevette crinoïde, est une espèce de crevettes de la famille des Hippolytidae et du genre Hippolyte. Elle vit camouflée au milieu des bras de la comatule tropicale Tropiometra carinata.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hippolyte catagrapha mesure jusqu'à 22 mm[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hippolyte catagrapha mesure jusqu'à 22 mm.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, du latin catagraphus, « peint, dessiné », lui a été donné en référence à ses motifs complexes et colorés[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, du latin catagraphus, « peint, dessiné », lui a été donné en référence à ses motifs complexes et colorés. 
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Cédric d'Udekem d'Acoz, « New records of Atlantic Hippolyte, with the description of two new species, and a key to all Atlantic and Mediterranean species (Crustacea, Decapoda, Caridea) », Zoosystema, Paris, Muséum national d'histoire naturelle, vol. 29, no 1,‎ 2007, p. 183-207 (ISSN 1280-9551 et 1638-9387, OCLC 263656142, BNF 34546864, lire en ligne)</t>
         </is>
